--- a/AssignmentThreeWithPOM/src/test/resources/Testdata/TestData.xlsx
+++ b/AssignmentThreeWithPOM/src/test/resources/Testdata/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Brand</t>
   </si>

--- a/AssignmentThreeWithPOM/src/test/resources/Testdata/TestData.xlsx
+++ b/AssignmentThreeWithPOM/src/test/resources/Testdata/TestData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\AssignmentThreeWithPOM\src\test\resources\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AssignmentThreeWithPOMJenkins\AssignmentThreeWithPOM\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1E14F6-EA87-4A8F-8D9E-36D9F49852A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAAE86-4B4B-4E59-8088-5DF88F582843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="MySalary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
@@ -34,22 +33,7 @@
     <t>Samsung Galaxy S21 Ultra 5G 128GB G998U Unlocked - Excellent</t>
   </si>
   <si>
-    <t>Buying as a guest</t>
-  </si>
-  <si>
-    <t>InfoTest</t>
-  </si>
-  <si>
     <t>Samsung Selected</t>
-  </si>
-  <si>
-    <t>We connect people and build communities to create economic opportunity for all.</t>
-  </si>
-  <si>
-    <t>Jobs in Engineering: eBay Careers</t>
-  </si>
-  <si>
-    <t>Samsung is the phone</t>
   </si>
 </sst>
 </file>
@@ -368,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,45 +373,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD6AAE0-5D12-423D-A6F5-B8B378876E9C}">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="0">
-        <v>150000</v>
       </c>
     </row>
   </sheetData>
